--- a/数据整理/stocks/其他/UNH-UnitedHealthGroupInc.xlsx
+++ b/数据整理/stocks/其他/UNH-UnitedHealthGroupInc.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,37 +462,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -502,188 +482,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时标普500ETF(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>70.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7703</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1410</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1410</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003718</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普500指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161125</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达标普500指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +514,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,14 +554,188 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.19</v>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/其他/UNH-UnitedHealthGroupInc.xlsx
+++ b/数据整理/stocks/其他/UNH-UnitedHealthGroupInc.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -498,6 +515,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159612</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012865</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/UNH-UnitedHealthGroupInc.xlsx
+++ b/数据整理/stocks/其他/UNH-UnitedHealthGroupInc.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.72</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -515,6 +532,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159612</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159655</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1178,7 +1821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
